--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525527.8977447189</v>
+        <v>565870.2796752304</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889761</v>
+        <v>337002.2430554242</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8442333.79338705</v>
+        <v>8424682.894232525</v>
       </c>
     </row>
     <row r="11">
@@ -671,52 +673,52 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.8009741436498</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>62.4829167021492</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>26.94734737400181</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>231.8635835046277</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>125.6384340685011</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.632598604764071</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.5637353995026</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>17.49690079789893</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>199.8692462101356</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>210.1980673854552</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>296.2411725869737</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>87.08306095824811</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>22.28704139029322</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>28.28353668143724</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.3333543119055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2236,31 +2238,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>15.1823972622756</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>68.19029374363615</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>372.2609024098822</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>129.0246247964035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>364.1361550348466</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.31590541686257</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.3479782431508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>119.0805886067736</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>30.47308965960345</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,31 +2949,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>46.8080776936207</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.16471659739257</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>248.2495071498749</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>168.2959226233835</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>46.8080776936207</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>206.1608002224375</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>241.7627700121625</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>59.66385641544514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>101.7806877295495</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>33.45303598738873</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>84.95149223441521</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S39" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>101.7177065691263</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364069</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>285.5453800016784</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.020123643055524</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>86.11283245544996</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>155.886038567534</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>1.998219257060982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>143.7391060166181</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>10.43941339835957</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>155.8860385675336</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>486.9119902784999</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>312.4589609973729</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>163.5245513361216</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>597.5869741473898</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y3" t="n">
-        <v>655.1273272985679</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694.6722890434539</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>694.6722890434539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="7">
@@ -4717,13 +4719,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.7624959030018</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8614515073789</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8614515073789</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8614515073789</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117561</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>286.9604071117561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.254671414236</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098021</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369327</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885137</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>818.7624959030018</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>818.7624959030018</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399122</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>339.9440834239259</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>339.9440834239259</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360758</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285679</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465643</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148216</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360295</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706534</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1422.14692331494</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C11" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="W11" t="n">
-        <v>2289.351746278602</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.885988017522</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y11" t="n">
-        <v>1525.74665604171</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,7 +5141,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5163,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1278.657628994267</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.657628994267</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>920.3919303875161</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
@@ -5294,10 +5296,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5306,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2212.181128500978</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V14" t="n">
-        <v>1881.118241157407</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W14" t="n">
-        <v>1668.796960970078</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X14" t="n">
-        <v>1668.796960970078</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.657628994267</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5376,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1714.909333753394</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="C17" t="n">
-        <v>1714.909333753394</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="D17" t="n">
-        <v>1356.643635146644</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>970.8553825483993</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>559.8694777587918</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>141.9056696569787</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>141.9056696569787</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
@@ -5519,7 +5521,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.514423990286</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V17" t="n">
-        <v>2478.514423990286</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W17" t="n">
-        <v>2478.514423990286</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X17" t="n">
-        <v>2105.048665729206</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y17" t="n">
-        <v>1714.909333753394</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
         <v>505.8730812692495</v>
@@ -5589,7 +5591,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5601,7 +5603,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5637,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005476</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1208.982837814967</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082163</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2273.767707333307</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312744</v>
+        <v>1942.704819989736</v>
       </c>
       <c r="W20" t="n">
-        <v>1759.555763042629</v>
+        <v>1589.936164719622</v>
       </c>
       <c r="X20" t="n">
-        <v>1759.555763042629</v>
+        <v>1216.470406458542</v>
       </c>
       <c r="Y20" t="n">
-        <v>1595.582677879089</v>
+        <v>826.3310744827304</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5847,7 +5849,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7118141694738</v>
+        <v>712.793229396055</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7118141694738</v>
+        <v>712.793229396055</v>
       </c>
       <c r="D22" t="n">
-        <v>438.7118141694738</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E22" t="n">
-        <v>438.7118141694738</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F22" t="n">
-        <v>291.8218666715635</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G22" t="n">
-        <v>122.8220664098959</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5947,13 +5949,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755379</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>429.9640953657001</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6072,10 +6074,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6178,19 +6180,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>184.2708856551155</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>902.4179758042685</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C26" t="n">
-        <v>902.4179758042685</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D26" t="n">
-        <v>902.4179758042685</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
-        <v>902.4179758042685</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>902.4179758042685</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6236,7 +6238,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6245,31 +6247,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="W26" t="n">
-        <v>1662.48357412947</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X26" t="n">
-        <v>1289.01781586839</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y26" t="n">
-        <v>1289.01781586839</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>546.4805193761947</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="C28" t="n">
-        <v>377.5443364482878</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D28" t="n">
-        <v>227.4276970359521</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E28" t="n">
-        <v>79.51460345355898</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F28" t="n">
-        <v>79.51460345355898</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>79.51460345355898</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6409,25 +6411,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2323.103882821189</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C29" t="n">
-        <v>1954.141365880777</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
         <v>381.1377017843616</v>
@@ -6464,10 +6466,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2576.865668183098</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2323.103882821189</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2323.103882821189</v>
+        <v>2611.339502902651</v>
       </c>
       <c r="W29" t="n">
-        <v>2323.103882821189</v>
+        <v>2258.570847632537</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.103882821189</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="Y29" t="n">
-        <v>2323.103882821189</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6543,40 +6545,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2191.96288889382</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C31" t="n">
-        <v>2191.96288889382</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D31" t="n">
-        <v>2191.96288889382</v>
+        <v>2547.032451605887</v>
       </c>
       <c r="E31" t="n">
-        <v>2191.96288889382</v>
+        <v>2399.119358023494</v>
       </c>
       <c r="F31" t="n">
-        <v>2191.96288889382</v>
+        <v>2252.229410525583</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>2252.229410525583</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J31" t="n">
         <v>2022.963088632153</v>
@@ -6643,28 +6645,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>2628.295841929947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2628.295841929947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>2628.295841929947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>2628.295841929947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>2373.61135372406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>2373.61135372406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X31" t="n">
-        <v>2373.61135372406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y31" t="n">
-        <v>2373.61135372406</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>962.1194880117303</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C32" t="n">
-        <v>962.1194880117303</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D32" t="n">
-        <v>962.1194880117303</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E32" t="n">
-        <v>962.1194880117303</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1335832221228</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2112.324418312744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1738.858660051664</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1348.719328075852</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,10 +6776,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6789,31 +6791,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2488.905858470306</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C34" t="n">
-        <v>2319.969675542399</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D34" t="n">
-        <v>2169.853036130064</v>
+        <v>2547.032451605887</v>
       </c>
       <c r="E34" t="n">
-        <v>2169.853036130064</v>
+        <v>2399.119358023494</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2252.229410525583</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>2252.229410525583</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2488.905858470306</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2488.905858470306</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>2488.905858470306</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>2488.905858470306</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>2488.905858470306</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y34" t="n">
-        <v>2488.905858470306</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1993.546461473041</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C35" t="n">
-        <v>1993.546461473041</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6962,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y35" t="n">
-        <v>1993.546461473041</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7010,25 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2697.149091018223</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C37" t="n">
-        <v>2636.88256938646</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D37" t="n">
-        <v>2486.765929974124</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="E37" t="n">
-        <v>2338.852836391731</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.962888893821</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7099,7 +7101,7 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
         <v>2351.73700797761</v>
@@ -7138,7 +7140,7 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>962.1597273639309</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C38" t="n">
-        <v>593.1972104235191</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D38" t="n">
-        <v>593.1972104235191</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7187,37 +7189,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P38" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2663.358145576416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2663.358145576416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2663.358145576416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2409.596360214508</v>
+        <v>2611.339502902651</v>
       </c>
       <c r="V38" t="n">
-        <v>2078.533472870937</v>
+        <v>2611.339502902651</v>
       </c>
       <c r="W38" t="n">
-        <v>1725.764817600822</v>
+        <v>2258.570847632537</v>
       </c>
       <c r="X38" t="n">
-        <v>1352.299059339743</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="Y38" t="n">
-        <v>962.1597273639309</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7272,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7348,34 +7350,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U40" t="n">
-        <v>625.3838260558018</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V40" t="n">
-        <v>625.3838260558018</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>625.3838260558018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>625.3838260558018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1139.146815977588</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C41" t="n">
-        <v>1139.146815977588</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>58.00371277294579</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7427,10 +7429,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7439,22 +7441,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>2289.351746278602</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.885988017522</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y41" t="n">
-        <v>1525.74665604171</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>288.8387344486666</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>140.9256408662735</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7597,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1036.358670716696</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C44" t="n">
-        <v>1036.358670716696</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W44" t="n">
-        <v>1958.288858935031</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.097842756629</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y44" t="n">
-        <v>1422.958510780817</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>2033.507950650698</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>2033.507950650698</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>2033.507950650698</v>
       </c>
       <c r="E46" t="n">
         <v>2022.963088632153</v>
@@ -7810,46 +7812,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>2469.840903686825</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U46" t="n">
-        <v>2312.380258669114</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>2215.156415480938</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>311.3650978177534</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>346.2692436516226</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599038</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>14.84410631175118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>163.4584653788256</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22838,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>120.4977181906369</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C8" t="n">
-        <v>102.030857819341</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>75.28528753921177</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>137.8675171738413</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017162</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>107.544508198328</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2256052425496</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.170106263978</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23276,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,13 +23317,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>47.81346828956566</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>149.812901461152</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>165.4036455608719</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>139.0429013319578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23735,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>58.44186903370928</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>64.84825528661314</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>144.9597797083346</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23938,22 +23940,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>56.25950038248487</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24017,13 +24019,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.940630826852</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.9045843441481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>164.6495829196617</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>87.980595098159</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>41.52326761091274</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24254,25 +24256,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>24.6204915453562</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24418,16 +24420,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.68503059263361</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.64801498594841</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>58.23880152205123</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>19.88405377167442</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>16.79756070686807</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>97.3677317508842</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>297.2791688105315</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>109.3628111481744</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>78.50047538276526</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>133.6808629223869</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>245.4882473974115</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,10 +24973,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25075,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,13 +25092,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>109.3628111481744</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>18.87430523564674</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>112.9202716085204</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>107.5829646831827</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.52911452950141</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801578</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,10 +25408,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>21.02536658742297</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,10 +25447,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>166.2726752738741</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801578</v>
@@ -25603,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>184.5641676728515</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>69.13766161900458</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>147.9111926018057</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>59.30821556748128</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25837,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3958356744438</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>52.48018331775071</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>225.9919946618509</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>135.9945492482096</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3958356744442</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482163.6750662233</v>
+        <v>482163.6750662234</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>501254.8875917584</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182669</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182664</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26335,7 +26337,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266295</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835746</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525672</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26423,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42100.10620798598</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="F4" t="n">
         <v>44802.65617556861</v>
@@ -26433,25 +26435,25 @@
         <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="O4" t="n">
         <v>44802.6561755686</v>
@@ -26473,43 +26475,43 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683333</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29831.55399957307</v>
+        <v>-29831.55399957303</v>
       </c>
       <c r="C6" t="n">
-        <v>50937.8775319747</v>
+        <v>50937.87753197467</v>
       </c>
       <c r="D6" t="n">
-        <v>28491.02680976574</v>
+        <v>50937.87753197473</v>
       </c>
       <c r="E6" t="n">
-        <v>-255974.8534091587</v>
+        <v>-281100.5897685803</v>
       </c>
       <c r="F6" t="n">
-        <v>151745.5842744159</v>
+        <v>151745.5842744158</v>
       </c>
       <c r="G6" t="n">
         <v>151745.5842744158</v>
       </c>
       <c r="H6" t="n">
-        <v>151745.5842744158</v>
+        <v>151745.5842744159</v>
       </c>
       <c r="I6" t="n">
         <v>151745.5842744158</v>
       </c>
       <c r="J6" t="n">
-        <v>88685.64167530957</v>
+        <v>88685.64167530973</v>
       </c>
       <c r="K6" t="n">
-        <v>151745.5842744158</v>
+        <v>151745.5842744159</v>
       </c>
       <c r="L6" t="n">
-        <v>146119.9420458902</v>
+        <v>151745.5842744159</v>
       </c>
       <c r="M6" t="n">
-        <v>49311.46658378065</v>
+        <v>43772.22360035771</v>
       </c>
       <c r="N6" t="n">
-        <v>151745.5842744158</v>
+        <v>151745.5842744159</v>
       </c>
       <c r="O6" t="n">
         <v>151745.5842744158</v>
       </c>
       <c r="P6" t="n">
-        <v>151745.5842744159</v>
+        <v>151745.5842744158</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26765,13 +26767,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170867</v>
@@ -26793,43 +26795,43 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302974</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367558</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887679</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760344</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679516</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332509</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495004835149808</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522957</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588684</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,7 +33654,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33661,34 +33663,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,40 +33727,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I36" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
@@ -33767,7 +33769,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,25 +33830,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33898,34 +33900,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,40 +33964,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I39" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
@@ -34004,7 +34006,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194291</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894758</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5586190747613</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178749</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082925</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507654</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.4508996191905</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35969,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>410.0055067279164</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36215,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36613,7 +36615,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36689,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,22 +37311,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735647</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37476,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,22 +37548,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37713,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38108,7 +38110,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497537.1536522538</v>
+        <v>558271.841138741</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624711</v>
+        <v>337002.2430554243</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8445301.612181708</v>
+        <v>8424682.894232525</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>104.7383832473596</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>102.3487067965264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>100.0664653563072</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>51.47427571028325</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>151.9428382717947</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>59.767780818582</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>347.0822867516928</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>74.58350059176995</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>88.83490402252897</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>112.701647550017</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>295.858621562923</v>
       </c>
       <c r="I14" t="n">
-        <v>54.70420958795997</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>78.40333552909871</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.4054520543809</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1903,7 +1903,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>153.8274745711262</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>108.219802131625</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>251.5575434010034</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>36.31606325004106</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.27998741352621</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>24.29040109555791</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>43.97706146539495</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>67.24036028042099</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>146.3014312583105</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.8185760415229</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>33.77936158462983</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>227.843273128277</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>89.76224143674064</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>274.4246847141209</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>11.38116516071064</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>329.6586928752346</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>274.487665874544</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>252.7077160573361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.72973301381582</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>189.5968436493439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>229.2071467849034</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>197.2366938434407</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>108.2198021316251</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>44.17579562641266</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>327.1485339723823</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>199.8692462101356</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>148.3725158629812</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>194.8773026050918</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>45.53661789137295</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="3">
@@ -4448,7 +4448,7 @@
         <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4509,25 +4509,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>19.56501858889139</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>19.56501858889139</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>19.56501858889139</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>19.56501858889139</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>827.8051051802445</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>617.0136766887008</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>617.0136766887008</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>617.0136766887008</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>617.0136766887008</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>617.0136766887008</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>513.6311445709973</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409624</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>619.9647125784934</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>862.0818176160244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>978.2509294445696</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>804.9818487541377</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>602.8274275453307</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>501.7501898116871</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V6" t="n">
-        <v>266.5980815799443</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.5592364780664</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>71.5592364780664</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>71.5592364780664</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>71.5592364780664</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>71.5592364780664</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>71.5592364780664</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>444.5765064295815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>291.0988920136273</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415462</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668868</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>698.4535282668868</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>444.5765064295815</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>444.5765064295815</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>444.5765064295815</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>444.5765064295815</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>444.5765064295815</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>570.5104503206708</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C9" t="n">
-        <v>510.1389545443253</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D9" t="n">
-        <v>361.204544883074</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E9" t="n">
-        <v>361.204544883074</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F9" t="n">
-        <v>361.204544883074</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5237199540885</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>30.73231659501241</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>271.335844489875</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>531.9454581020252</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141754</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>824.7478070488723</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>824.7478070488723</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>570.5104503206708</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X9" t="n">
-        <v>570.5104503206708</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y9" t="n">
-        <v>570.5104503206708</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
         <v>882.8926947117852</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2348.148865236162</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2017.085977892592</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W11" t="n">
-        <v>2017.085977892592</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X11" t="n">
-        <v>2017.085977892592</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y11" t="n">
-        <v>1626.94664591678</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5120,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>290.5651556036576</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C13" t="n">
-        <v>290.5651556036576</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D13" t="n">
-        <v>290.5651556036576</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E13" t="n">
-        <v>290.5651556036576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6752081057473</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406182</v>
+        <v>614.2889361761142</v>
       </c>
       <c r="T13" t="n">
-        <v>579.9823256406182</v>
+        <v>614.2889361761142</v>
       </c>
       <c r="U13" t="n">
-        <v>579.9823256406182</v>
+        <v>614.2889361761142</v>
       </c>
       <c r="V13" t="n">
-        <v>579.9823256406182</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="W13" t="n">
-        <v>290.5651556036576</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X13" t="n">
-        <v>290.5651556036576</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y13" t="n">
-        <v>290.5651556036576</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1307.111989013772</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C14" t="n">
-        <v>938.1494720733608</v>
+        <v>924.2198584148889</v>
       </c>
       <c r="D14" t="n">
-        <v>938.1494720733608</v>
+        <v>924.2198584148889</v>
       </c>
       <c r="E14" t="n">
-        <v>938.1494720733608</v>
+        <v>924.2198584148889</v>
       </c>
       <c r="F14" t="n">
-        <v>527.1635672837533</v>
+        <v>924.2198584148889</v>
       </c>
       <c r="G14" t="n">
-        <v>109.1997591819402</v>
+        <v>506.2560503130758</v>
       </c>
       <c r="H14" t="n">
-        <v>109.1997591819402</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W14" t="n">
-        <v>2070.717079250664</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.251320989584</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y14" t="n">
-        <v>1307.111989013772</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,43 +5357,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>280.0282177315058</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>280.0282177315058</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>280.0282177315058</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E16" t="n">
-        <v>280.0282177315058</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1382702335955</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>280.0282177315058</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.7161657136784</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>390.7161657136784</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D17" t="n">
-        <v>390.7161657136784</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>390.7161657136784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>390.7161657136784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.455337753612</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y17" t="n">
-        <v>777.3160057778002</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="18">
@@ -5576,16 +5576,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5597,13 +5597,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5618,7 +5618,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>404.5276295785111</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U19" t="n">
-        <v>404.5276295785111</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V19" t="n">
-        <v>404.5276295785111</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>404.5276295785111</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>919.5755868835438</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="C20" t="n">
-        <v>919.5755868835438</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D20" t="n">
-        <v>919.5755868835438</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E20" t="n">
-        <v>919.5755868835438</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F20" t="n">
-        <v>508.5896820939362</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>90.6258739921231</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X20" t="n">
-        <v>1309.714918859356</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y20" t="n">
-        <v>919.5755868835438</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5831,16 +5831,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5858,16 +5858,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C22" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>636.9370777281249</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>422.6486545462877</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>422.6486545462877</v>
+        <v>222.942782082032</v>
       </c>
       <c r="U22" t="n">
-        <v>422.6486545462877</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V22" t="n">
-        <v>422.6486545462877</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W22" t="n">
-        <v>422.6486545462877</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X22" t="n">
-        <v>422.6486545462877</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1192.157102157134</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="C23" t="n">
-        <v>823.1945852167225</v>
+        <v>1233.518596497348</v>
       </c>
       <c r="D23" t="n">
-        <v>464.928886609972</v>
+        <v>875.252897890598</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>489.4646452923537</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>78.47874050274618</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>78.47874050274618</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>78.47874050274618</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6022,19 +6022,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2652.727816810753</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2321.664929467182</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>1968.896274197068</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X23" t="n">
-        <v>1968.896274197068</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.756942221256</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8625376591735</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1725.724578248621</v>
+        <v>987.3573795552941</v>
       </c>
       <c r="C26" t="n">
-        <v>1356.76206130821</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D26" t="n">
-        <v>998.4963627014592</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E26" t="n">
-        <v>612.7081101032149</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F26" t="n">
-        <v>201.7222053136074</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2517.051132819905</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2298.416465791967</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2044.654680430059</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>1713.591793086488</v>
       </c>
       <c r="W26" t="n">
-        <v>2112.324418312743</v>
+        <v>1360.823137816374</v>
       </c>
       <c r="X26" t="n">
-        <v>2112.324418312743</v>
+        <v>987.3573795552941</v>
       </c>
       <c r="Y26" t="n">
-        <v>2112.324418312743</v>
+        <v>987.3573795552941</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>694.0084169492324</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>694.0084169492324</v>
       </c>
       <c r="W28" t="n">
-        <v>211.4036268380754</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1584.82310067395</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C29" t="n">
-        <v>1215.860583733539</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="D29" t="n">
-        <v>857.5948851267883</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E29" t="n">
-        <v>471.8066325285441</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>471.8066325285441</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>471.8066325285441</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>144.6119125645469</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
         <v>1836.345445977174</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205144</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.28885893503</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X29" t="n">
-        <v>1584.82310067395</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y29" t="n">
-        <v>1584.82310067395</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="30">
@@ -6518,73 +6518,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1238.153685885794</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C32" t="n">
-        <v>869.1911689453821</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D32" t="n">
-        <v>869.1911689453821</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>483.4029163471378</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>483.4029163471378</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>65.43910824532469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2388.358616186807</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.358616186807</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.892857925727</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.753525949915</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.381229508782</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.41871256837</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D35" t="n">
-        <v>1138.15301396162</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036444</v>
@@ -6940,10 +6940,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280442</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548715</v>
+        <v>2680.250370802246</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548715</v>
+        <v>2349.187483458676</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548715</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.120401548715</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.981069572903</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="36">
@@ -7128,13 +7128,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
         <v>53.94298182036444</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>808.6937513590203</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>439.7312344186087</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D38" t="n">
         <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.723949158869</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V38" t="n">
-        <v>2169.723949158869</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W38" t="n">
-        <v>1816.955293888755</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X38" t="n">
-        <v>1585.432923398954</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y38" t="n">
-        <v>1195.293591423142</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="W40" t="n">
-        <v>428.8224802162921</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X40" t="n">
-        <v>200.8329293182748</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.8329293182748</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2045.420119349963</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2045.420119349963</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2045.420119349963</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.420119349963</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y41" t="n">
-        <v>1655.280787374151</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V43" t="n">
-        <v>500.820796875036</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W43" t="n">
-        <v>500.820796875036</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="X43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.153685885794</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C44" t="n">
-        <v>869.1911689453821</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D44" t="n">
-        <v>510.9254703386316</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E44" t="n">
-        <v>510.9254703386316</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>99.939565549024</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.892857925727</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.753525949915</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7839,13 +7839,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036445</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>258.0586303207525</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4654202195568</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>139.6188569073249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368072</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10588,13 +10588,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451752</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928328</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.4685256062839</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>120.7101594098652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>267.3823938819426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22919,13 +22919,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>125.8743968384091</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>235.0487226263078</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>213.3300534992129</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521645</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>233.3417714764288</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>112.9407181697337</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>33.35172524210886</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>18.19060501931472</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>176.6406669165194</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>78.47489823652194</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>99.44389140000192</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23475,10 +23475,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>28.06415120143419</v>
       </c>
       <c r="I14" t="n">
-        <v>97.22710665690128</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>88.9064667299522</v>
+        <v>75.30176537689273</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>80.37871796641411</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>232.4104640849274</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>116.8153033264593</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>131.1762982624772</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>287.6067095143161</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>56.38520456663164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>83.71149628510287</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>127.6409151493033</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>207.2471060428944</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>78.18068774251026</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>267.4827387624845</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>50.59713676744862</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24654,10 +24654,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>252.5025126573479</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>69.82361682150338</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>126.839768492406</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>62.16907480812061</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24894,16 +24894,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>12.09831362247007</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>312.5416076036465</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>19.58227584217843</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>11.79420836743373</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>129.2226540149257</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,13 +25210,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>234.4944344944735</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>140.5239538935656</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>189.0012448126129</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>178.0620721103527</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>242.3472027101784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>27.53450764830063</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>51.35492129815367</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>18.87430523564663</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>170.3955891659157</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>368.247552129422</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662231</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485250.2066126673</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>501254.8875917587</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26328,13 +26328,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="H2" t="n">
         <v>245779.7185133938</v>
       </c>
-      <c r="H2" t="n">
-        <v>245779.7185133939</v>
-      </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26343,10 +26343,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="M2" t="n">
         <v>245779.718513394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835741</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.2558024571108</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847463</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42033.93659314635</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42100.10620798598</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
@@ -26444,19 +26444,19 @@
         <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556859</v>
       </c>
       <c r="N4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
         <v>44802.65617556861</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26505,10 +26505,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42049.56461961352</v>
+        <v>-31053.35506157705</v>
       </c>
       <c r="C6" t="n">
-        <v>34959.26536751764</v>
+        <v>49716.07646997069</v>
       </c>
       <c r="D6" t="n">
-        <v>20880.59070753587</v>
+        <v>49716.07646997069</v>
       </c>
       <c r="E6" t="n">
-        <v>-262043.2671549775</v>
+        <v>-281707.4311431622</v>
       </c>
       <c r="F6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.742899834</v>
       </c>
       <c r="G6" t="n">
-        <v>145677.1705285965</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="H6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="I6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.742899834</v>
       </c>
       <c r="J6" t="n">
-        <v>82617.22792949047</v>
+        <v>88078.80030072769</v>
       </c>
       <c r="K6" t="n">
-        <v>144763.9147261395</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="L6" t="n">
-        <v>140949.6074097493</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="M6" t="n">
-        <v>43243.05283796163</v>
+        <v>43165.38222577596</v>
       </c>
       <c r="N6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="O6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="P6" t="n">
-        <v>145677.1705285967</v>
+        <v>151138.7428998339</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483226</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905246</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028886</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>117.3425372005507</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.770660483716219</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36129,7 +36129,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
         <v>478.8956552492236</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36603,7 +36603,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L29" t="n">
         <v>421.5361394435301</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,10 +37159,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,7 +37399,7 @@
         <v>439.8839133355119</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,13 +37557,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,7 +37636,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,10 +37870,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38031,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,13 +38104,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
